--- a/data/trans_orig/P34B04-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P34B04-Clase-trans_orig.xlsx
@@ -660,7 +660,7 @@
         <v>0.2068488591341434</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.3935824080120096</v>
+        <v>0.3935824080120094</v>
       </c>
     </row>
     <row r="5">
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4197818322694277</v>
+        <v>0.4285810533996824</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2265227276482482</v>
+        <v>0.2286843230794312</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4524890412423614</v>
+        <v>0.444699010669872</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06118322847186901</v>
+        <v>0.05769910861138801</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04006426627440558</v>
+        <v>0.03758907805376109</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1215145306635393</v>
+        <v>0.1203791768997051</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2858710905681534</v>
+        <v>0.2875875993916822</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1524140096075962</v>
+        <v>0.1536534889899439</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3189551444773269</v>
+        <v>0.3096362273765209</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7100314912257278</v>
+        <v>0.7124495829447456</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4235508607888509</v>
+        <v>0.4411171512334798</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7596048333201854</v>
+        <v>0.746103863731819</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2737419738756446</v>
+        <v>0.256684506852481</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1426661235608525</v>
+        <v>0.1348264366765809</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2778252084159273</v>
+        <v>0.2601540269357935</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4701585654063379</v>
+        <v>0.4689157856766358</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2729983446301906</v>
+        <v>0.2700874202765414</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4897219603057484</v>
+        <v>0.4894548526053513</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.320203281743875</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4428070809396442</v>
+        <v>0.4428070809396441</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.01435925461126406</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2061213339566774</v>
+        <v>0.2140746759002644</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2278976336282553</v>
+        <v>0.2174157415457178</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3181545930640808</v>
+        <v>0.3260514141211335</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002767118981399759</v>
+        <v>0.002781021592469943</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06159928708767799</v>
+        <v>0.05969036564957621</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06838007201988555</v>
+        <v>0.06177204580901412</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1236866862691023</v>
+        <v>0.1222856477855458</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1629157120417209</v>
+        <v>0.1588834831049868</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2150675200516831</v>
+        <v>0.2210127913648714</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4470585446624764</v>
+        <v>0.4567650267842764</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.455360651061262</v>
+        <v>0.4503247857080874</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5914358875477079</v>
+        <v>0.610523415266897</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03987818276839402</v>
+        <v>0.04355505561735908</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.194950957205516</v>
+        <v>0.2003280410097783</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1996964237618007</v>
+        <v>0.189054743072127</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2652897225781995</v>
+        <v>0.262172163436253</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3097401214980524</v>
+        <v>0.2975638368203787</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3716345302165085</v>
+        <v>0.3897854887596131</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>0.1482435557348044</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.2596175391715681</v>
+        <v>0.2596175391715682</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1726808890409753</v>
+        <v>0.1725660492737375</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1184833488941693</v>
+        <v>0.1202978589021189</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2097181090616789</v>
+        <v>0.196067181776226</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02310064638905375</v>
+        <v>0.02313885318896302</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01163994776961011</v>
+        <v>0.01808469550473274</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07465507210734833</v>
+        <v>0.07322912483426178</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1369979264637019</v>
+        <v>0.1395207405800138</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1032771413905434</v>
+        <v>0.1010979165364774</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1825705009199823</v>
+        <v>0.1830174947680935</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3215719670592829</v>
+        <v>0.3237297489027345</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2685141105436173</v>
+        <v>0.2573254992522102</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4554054781970587</v>
+        <v>0.4391957460887176</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.16188611512709</v>
+        <v>0.1552338315465574</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.139512001440554</v>
+        <v>0.1441030420815332</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2831872935074432</v>
+        <v>0.3067370334971949</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2618975478708035</v>
+        <v>0.2575813076553685</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2166632073543983</v>
+        <v>0.2128814412487224</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.373907662355258</v>
+        <v>0.3671628553138899</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>0.2920872196702693</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3054100025857689</v>
+        <v>0.305410002585769</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.03461775009590916</v>
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1812718035411092</v>
+        <v>0.1794310925241323</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2310753030633788</v>
+        <v>0.2297186369813413</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2338119796162178</v>
+        <v>0.2336511109737614</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0126531852608671</v>
+        <v>0.01411655797138224</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05589518872081092</v>
+        <v>0.05505243087224933</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0524192572961128</v>
+        <v>0.0548632494856763</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1226633485989243</v>
+        <v>0.122807861802035</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1663088007210961</v>
+        <v>0.1682538380625236</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1677371786146691</v>
+        <v>0.1660256355694148</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2932761450824092</v>
+        <v>0.2952152348167194</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3688180059260541</v>
+        <v>0.3609209913222106</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3939615826047048</v>
+        <v>0.3925299293965422</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07204457857362805</v>
+        <v>0.07685772342871842</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.142166095202755</v>
+        <v>0.1399837809501011</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1458321624748812</v>
+        <v>0.147946061278031</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1991828078401196</v>
+        <v>0.19727220469032</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.250142824706465</v>
+        <v>0.2511167877233857</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.274757300843088</v>
+        <v>0.2633901266129134</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2012312629437746</v>
+        <v>0.2053468971879431</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1781753089456991</v>
+        <v>0.177915335943554</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2232294418471436</v>
+        <v>0.2146468416069294</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01482914315569784</v>
+        <v>0.01533524655763213</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.009932414570480925</v>
+        <v>0.01014227817649913</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08230630867942758</v>
+        <v>0.08519953286663898</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09601312375683341</v>
+        <v>0.09363912386891848</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.101002055128921</v>
+        <v>0.1027966852980906</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3925007889850654</v>
+        <v>0.3974657208650245</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3409294760460963</v>
+        <v>0.3509568293980071</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4377695932120426</v>
+        <v>0.4425309449172185</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02994639742491847</v>
+        <v>0.0302652881818802</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0619691085799514</v>
+        <v>0.06050922894562499</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05616242932729581</v>
+        <v>0.05350846612338236</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.157809477345985</v>
+        <v>0.1620540777001399</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1736425256324706</v>
+        <v>0.1692120506010117</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1996124715067561</v>
+        <v>0.1945081624277365</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>0.2760277078156168</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.3407846167788101</v>
+        <v>0.3407846167788102</v>
       </c>
     </row>
     <row r="20">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7815099273519734</v>
+        <v>0.7622282663475208</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8431521034818917</v>
+        <v>0.8301151327628233</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.935975244088826</v>
+        <v>0.8985400355338093</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02234078268555433</v>
+        <v>0.02124072305507561</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04470221554580954</v>
+        <v>0.04280040345161006</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04043973646301482</v>
+        <v>0.04120810929096839</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.175177274148994</v>
+        <v>0.1772320549520242</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2230992051864852</v>
+        <v>0.222276617575555</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2543753425309785</v>
+        <v>0.2522205056196217</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.184899168466525</v>
+        <v>1.183993973080178</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.281632978026263</v>
+        <v>1.278067629008684</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.692188779892604</v>
+        <v>1.680883789447623</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05815621266227898</v>
+        <v>0.05980971478619597</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1076411832510308</v>
+        <v>0.103725598633574</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1363601994979481</v>
+        <v>0.1283775093041725</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2640686309075744</v>
+        <v>0.265965243394813</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3430811503350202</v>
+        <v>0.3359522037763173</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4493717103576225</v>
+        <v>0.4497376478817889</v>
       </c>
     </row>
     <row r="22">
@@ -1305,7 +1305,7 @@
         <v>0.07060293645078454</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.08924876404153702</v>
+        <v>0.08924876404153703</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.1908333868893803</v>
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3097386116338927</v>
+        <v>0.3120415699910301</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3011804525832928</v>
+        <v>0.2982772616084082</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3847827594830835</v>
+        <v>0.3842861624593802</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0276946614462933</v>
+        <v>0.02774185701980696</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05471449034997707</v>
+        <v>0.05472387054166684</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.07081739100478714</v>
+        <v>0.07210933453381997</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1710751867420579</v>
+        <v>0.1713571629764429</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1822046119421565</v>
+        <v>0.1819462958752307</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2326873061764028</v>
+        <v>0.2313315427661206</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3880321452671191</v>
+        <v>0.3889194619098609</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3741475632238421</v>
+        <v>0.3777203739341078</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4950026375214047</v>
+        <v>0.4960192275109409</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05477643128516558</v>
+        <v>0.05534168008332974</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.08846689536619927</v>
+        <v>0.08895665683476356</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1128610301164584</v>
+        <v>0.1120177994069416</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2129654141779916</v>
+        <v>0.2129820245540022</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2256775297168581</v>
+        <v>0.2234566715567077</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2929699542618879</v>
+        <v>0.2895016107294681</v>
       </c>
     </row>
     <row r="25">
